--- a/Normalización/Base de datos Empresa entrega 2.xlsx
+++ b/Normalización/Base de datos Empresa entrega 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josel\Documents\Proyecto empresa dbms\git repo\ProyectoBasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERSONAL\Documents\Bases de datos\Proyecto\Normalización\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE708CE-1D3B-4C7B-8197-BCA630B2CF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{4864B099-378B-4E31-ACDB-8422AFF779B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="Informe final" sheetId="12" r:id="rId9"/>
     <sheet name="Estado Pago" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="273">
   <si>
     <t>Cliente</t>
   </si>
@@ -168,9 +167,6 @@
     <t>Valor total</t>
   </si>
   <si>
-    <t>IVA</t>
-  </si>
-  <si>
     <t>NombreProyecto</t>
   </si>
   <si>
@@ -808,12 +804,69 @@
   </si>
   <si>
     <t>fecha pago total</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>ARL</t>
+  </si>
+  <si>
+    <t>Fondo Pensiones</t>
+  </si>
+  <si>
+    <t>'Colpensiones'</t>
+  </si>
+  <si>
+    <t>'empleadoLaboratorista2@localhost',</t>
+  </si>
+  <si>
+    <t>'empleadoLaboratorista3@localhost',</t>
+  </si>
+  <si>
+    <t>'Porvenir'</t>
+  </si>
+  <si>
+    <t>'empleadoLaboratorista4@localhost',</t>
+  </si>
+  <si>
+    <t>'jefeLaboratorio1@localhost',</t>
+  </si>
+  <si>
+    <t>'Administrador1@localhost',</t>
+  </si>
+  <si>
+    <t>Administrador2@localhost',</t>
+  </si>
+  <si>
+    <t>Sanitas'</t>
+  </si>
+  <si>
+    <t>Positiva'</t>
+  </si>
+  <si>
+    <t>Colpensiones'</t>
+  </si>
+  <si>
+    <t>empleadoLaboratorista1@localhost'</t>
+  </si>
+  <si>
+    <t>Compensar'</t>
+  </si>
+  <si>
+    <t>Sura'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -911,7 +964,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -955,13 +1008,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{A3D21C37-6A71-4785-A92D-FAC045547C23}"/>
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{823414CC-1B60-4069-96F2-E3EA5C182BF0}"/>
-    <cellStyle name="Normal_Primer Apellido (por Provincia de Residencia y de Nacimiento)" xfId="3" xr:uid="{5BE61875-689D-4A6B-BC1D-3CF2D0F6B20A}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_Primer Apellido (por Provincia de Residencia y de Nacimiento)" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1272,14 +1327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D8E70E-ADA4-4F4D-8B5E-0208E0AE5C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
@@ -1455,25 +1510,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://www.google.com/search?client=firefox-b-d&amp;q=sgc+numero+telefono" xr:uid="{BC90CFE5-F06C-4235-8459-3BA25BCDBD0A}"/>
-    <hyperlink ref="I6" r:id="rId2" display="mailto:cliente@sgc.gov.co" xr:uid="{5AB1C90B-3CE2-4793-A771-A9EFCBAA4ABF}"/>
-    <hyperlink ref="I7" r:id="rId3" display="mailto:notificacionesjudiciales@idiger.gov.co" xr:uid="{DC8DC1A1-3E32-4CB1-8445-0EDD118AAD15}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://www.google.com/search?client=firefox-b-d&amp;q=ciambiental" xr:uid="{FCDFD38E-B9CD-4FA7-8EE0-6EC604F05D52}"/>
-    <hyperlink ref="I10" r:id="rId5" xr:uid="{30C39249-A214-4155-91C8-A20E651181D9}"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://www.google.com/search?client=firefox-b-d&amp;q=sgc+numero+telefono"/>
+    <hyperlink ref="I6" r:id="rId2" display="mailto:cliente@sgc.gov.co"/>
+    <hyperlink ref="I7" r:id="rId3" display="mailto:notificacionesjudiciales@idiger.gov.co"/>
+    <hyperlink ref="D8" r:id="rId4" display="https://www.google.com/search?client=firefox-b-d&amp;q=ciambiental"/>
+    <hyperlink ref="I10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04414B6-C59A-410F-83A2-04243CB5EA23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -1488,16 +1543,16 @@
     </row>
     <row r="4" spans="3:10">
       <c r="C4" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1512,7 +1567,7 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1527,10 +1582,10 @@
         <v>41039047.5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1545,7 +1600,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1560,7 +1615,7 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1575,10 +1630,10 @@
         <v>7524000</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1593,7 +1648,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1608,7 +1663,7 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1657,32 +1712,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D1ADA7-953E-4E85-8545-EADBE54F2000}">
-  <dimension ref="B2:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1707,41 +1761,34 @@
       <c r="I3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="10" t="s">
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="10">
         <v>130142100</v>
       </c>
-      <c r="F4" s="10">
-        <f>E4*0.19</f>
-        <v>24726999</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="10">
         <v>8001542751</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:9">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -1754,24 +1801,20 @@
       <c r="E5" s="10">
         <v>136796825</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:F10" si="0">E5*0.19</f>
-        <v>25991396.75</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="10">
         <v>8001542751</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:9">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -1784,24 +1827,20 @@
       <c r="E6" s="10">
         <v>79640000</v>
       </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>15131600</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="10">
         <v>8170014359</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:9">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -1809,29 +1848,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10">
         <v>29000000</v>
       </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>5510000</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="10">
         <v>9005586047</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:9">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -1844,24 +1879,20 @@
       <c r="E8" s="10">
         <v>22800000</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>4332000</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="10">
         <v>8300108934</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:9">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -1875,24 +1906,20 @@
         <f>2552000+3770000+3828000</f>
         <v>10150000</v>
       </c>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>1928500</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="10">
         <v>8300108934</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:9">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -1905,33 +1932,29 @@
       <c r="E10" s="10">
         <v>3828000</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>727320</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="10">
         <v>8300108934</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:9">
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="J13" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="I13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,14 +1963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268F9625-BF18-43F0-8A5E-13193F84BAB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1956,22 +1979,22 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1979,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="13">
         <v>4.5795000000000003</v>
@@ -1999,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13">
         <v>4.5796999999999999</v>
@@ -2019,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="13">
         <v>4.4188070000000002</v>
@@ -2039,10 +2062,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="13">
         <v>4.4387350000000003</v>
@@ -2059,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="D8" s="13">
         <v>4.9601819999999996</v>
@@ -2079,10 +2102,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13">
         <v>4.588114</v>
@@ -2099,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="13">
         <v>5.1852559999999999</v>
@@ -2119,10 +2142,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="13">
         <v>5.3376960000000002</v>
@@ -2141,130 +2164,237 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DA8075-C424-46B3-8114-F20177DEAC7E}">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F10"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="C3" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="C4" s="13">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="C5" s="13">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="C6" s="13">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="C7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="C8" s="13">
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="C9" s="13">
         <v>6</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="C10" s="13">
         <v>7</v>
@@ -2273,31 +2403,46 @@
         <v>17</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="7"/>
     </row>
@@ -2375,14 +2520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582BB4D2-6850-472C-8366-17638E35E0E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -2390,10 +2535,10 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2401,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2409,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -2417,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -2425,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -2433,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2441,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -2449,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -2457,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -2465,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -2473,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -2481,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -2489,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -2497,7 +2642,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2505,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2513,7 +2658,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -2521,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -2529,7 +2674,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2538,14 +2683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D332829B-26BA-49D7-A44D-EC27E16B08F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J43"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -2561,31 +2706,31 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -2602,20 +2747,20 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="G4" s="15">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
       </c>
       <c r="J4" s="13">
         <f ca="1">RANDBETWEEN(0,200)</f>
-        <v>110</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2632,20 +2777,20 @@
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" ref="J5:J43" ca="1" si="0">RANDBETWEEN(0,200)</f>
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -2662,20 +2807,20 @@
         <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="15">
         <v>2</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="13">
         <v>1</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:10">
@@ -2692,20 +2837,20 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="15">
         <v>1</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="13">
         <v>1</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -2722,20 +2867,20 @@
         <v>2</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -2752,20 +2897,20 @@
         <v>1</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="15">
         <v>1</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="13">
         <v>1</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -2782,20 +2927,20 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="15">
         <v>2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I10" s="13">
         <v>2</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -2812,20 +2957,20 @@
         <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I11" s="13">
         <v>2</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -2842,20 +2987,20 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="I12" s="13">
         <v>2</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -2872,20 +3017,20 @@
         <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="15">
         <v>2</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="13">
         <v>2</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -2902,20 +3047,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="13">
         <v>2</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2932,20 +3077,20 @@
         <v>2</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="15">
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -2962,20 +3107,20 @@
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="15">
         <v>1</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="13">
         <v>2</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -2992,20 +3137,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="15">
+        <v>2</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="G17" s="15">
-        <v>2</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="I17" s="13">
         <v>3</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -3022,20 +3167,20 @@
         <v>2</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="13">
         <v>3</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -3052,20 +3197,20 @@
         <v>2</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="15">
         <v>1</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="13">
         <v>3</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -3082,20 +3227,20 @@
         <v>2</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="15">
         <v>2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="13">
         <v>3</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -3112,20 +3257,20 @@
         <v>1</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I21" s="13">
         <v>3</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -3142,20 +3287,20 @@
         <v>1</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="I22" s="13">
         <v>4</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -3172,20 +3317,20 @@
         <v>2</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="15">
         <v>1</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="13">
         <v>4</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -3202,20 +3347,20 @@
         <v>2</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G24" s="15">
         <v>1</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I24" s="13">
         <v>4</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -3232,20 +3377,20 @@
         <v>2</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="15">
         <v>2</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I25" s="13">
         <v>4</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -3262,20 +3407,20 @@
         <v>1</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="13">
         <v>4</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -3292,20 +3437,20 @@
         <v>2</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="15">
         <v>2</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I27" s="13">
         <v>4</v>
       </c>
       <c r="J27" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -3322,20 +3467,20 @@
         <v>2</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="15">
         <v>1</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I28" s="13">
         <v>4</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -3352,20 +3497,20 @@
         <v>2</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="15">
         <v>2</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I29" s="13">
         <v>4</v>
       </c>
       <c r="J29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -3382,20 +3527,20 @@
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="15">
         <v>2</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I30" s="13">
         <v>4</v>
       </c>
       <c r="J30" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -3412,20 +3557,20 @@
         <v>2</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="15">
         <v>2</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I31" s="13">
         <v>4</v>
       </c>
       <c r="J31" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -3442,20 +3587,20 @@
         <v>2</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="15">
         <v>1</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="13">
         <v>4</v>
       </c>
       <c r="J32" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -3472,20 +3617,20 @@
         <v>1</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="15">
         <v>1</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" s="13">
         <v>5</v>
       </c>
       <c r="J33" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -3502,20 +3647,20 @@
         <v>1</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="15">
         <v>2</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I34" s="13">
         <v>5</v>
       </c>
       <c r="J34" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -3532,20 +3677,20 @@
         <v>2</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="15">
         <v>2</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="13">
         <v>5</v>
       </c>
       <c r="J35" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -3562,20 +3707,20 @@
         <v>1</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="15">
         <v>2</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="13">
         <v>6</v>
       </c>
       <c r="J36" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -3592,20 +3737,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="15">
         <v>2</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37" s="13">
         <v>7</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -3622,20 +3767,20 @@
         <v>2</v>
       </c>
       <c r="F38" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="G38" s="15">
-        <v>1</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="I38" s="13">
         <v>7</v>
       </c>
       <c r="J38" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -3652,20 +3797,20 @@
         <v>1</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="15">
         <v>1</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I39" s="13">
         <v>7</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -3682,20 +3827,20 @@
         <v>1</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="15">
         <v>2</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I40" s="13">
         <v>8</v>
       </c>
       <c r="J40" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -3712,20 +3857,20 @@
         <v>2</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="15">
         <v>1</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I41" s="13">
         <v>8</v>
       </c>
       <c r="J41" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -3742,20 +3887,20 @@
         <v>2</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42" s="15">
         <v>2</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I42" s="13">
         <v>8</v>
       </c>
       <c r="J42" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -3772,20 +3917,20 @@
         <v>2</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G43" s="15">
         <v>2</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="13">
         <v>8</v>
       </c>
       <c r="J43" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3796,14 +3941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01547909-E370-4320-9287-406931C30A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O93"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -3831,28 +3976,28 @@
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -3866,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="18">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="16">
         <v>6</v>
@@ -3897,13 +4042,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="18">
         <v>0</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="16">
         <v>3</v>
@@ -3928,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="18">
         <v>0</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -3959,13 +4104,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="16">
         <v>2</v>
@@ -3990,13 +4135,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -4021,13 +4166,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
@@ -4052,13 +4197,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="18">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="16">
         <v>5</v>
@@ -4083,13 +4228,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="18">
         <v>0</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
@@ -4114,13 +4259,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="16">
         <v>1</v>
@@ -4145,13 +4290,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="16">
         <v>6</v>
@@ -4176,13 +4321,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="18">
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="16">
         <v>2</v>
@@ -4207,13 +4352,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="16">
         <v>4</v>
@@ -4238,13 +4383,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="16">
         <v>4</v>
@@ -4269,13 +4414,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="18">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -4300,13 +4445,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="18">
         <v>0</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="16">
         <v>6</v>
@@ -4331,13 +4476,13 @@
         <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="18">
         <v>0</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
@@ -4362,13 +4507,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="16">
         <v>6</v>
@@ -4393,13 +4538,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="16">
         <v>5</v>
@@ -4424,13 +4569,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="18">
         <v>0</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="16">
         <v>6</v>
@@ -4455,13 +4600,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="18">
         <v>0</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
@@ -4486,13 +4631,13 @@
         <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="16">
         <v>6</v>
@@ -4517,13 +4662,13 @@
         <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="18">
         <v>0</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="16">
         <v>5</v>
@@ -4548,13 +4693,13 @@
         <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="18">
         <v>0</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
@@ -4579,13 +4724,13 @@
         <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E28" s="18">
         <v>1</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
@@ -4610,13 +4755,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E29" s="18">
         <v>1</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="16">
         <v>6</v>
@@ -4641,13 +4786,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="18">
         <v>1</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="16">
         <v>3</v>
@@ -4672,13 +4817,13 @@
         <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="18">
         <v>0</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="16">
         <v>6</v>
@@ -4703,13 +4848,13 @@
         <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="18">
         <v>0</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="16">
         <v>6</v>
@@ -4734,13 +4879,13 @@
         <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="18">
         <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="16">
         <v>1</v>
@@ -4765,13 +4910,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="18">
         <v>0</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
@@ -4796,13 +4941,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="18">
         <v>0</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
@@ -4827,13 +4972,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" s="18">
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="16">
         <v>1</v>
@@ -4858,13 +5003,13 @@
         <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="18">
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" s="16">
         <v>6</v>
@@ -4889,13 +5034,13 @@
         <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38" s="18">
         <v>1</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
@@ -4920,13 +5065,13 @@
         <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="18">
         <v>1</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
@@ -4951,13 +5096,13 @@
         <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E40" s="18">
         <v>1</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="16">
         <v>3</v>
@@ -4982,13 +5127,13 @@
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="18">
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" s="16">
         <v>6</v>
@@ -5013,13 +5158,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" s="18">
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" s="16">
         <v>2</v>
@@ -5044,13 +5189,13 @@
         <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" s="18">
         <v>0</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="16">
         <v>6</v>
@@ -5075,13 +5220,13 @@
         <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E44" s="18">
         <v>0</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="16">
         <v>3</v>
@@ -5106,13 +5251,13 @@
         <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="18">
         <v>0</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" s="16">
         <v>6</v>
@@ -5137,13 +5282,13 @@
         <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="18">
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" s="16">
         <v>2</v>
@@ -5168,13 +5313,13 @@
         <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="18">
         <v>1</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="16">
         <v>2</v>
@@ -5417,14 +5562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D67F8-D5B5-4059-8633-177BAB8865AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -5434,13 +5579,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -5448,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -5459,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -5470,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -5481,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -5492,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -5503,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -5514,7 +5659,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -5525,7 +5670,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -5536,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -5547,7 +5692,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -5558,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -5569,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -5580,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -5591,7 +5736,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="10">
         <v>2</v>
@@ -5602,7 +5747,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -5613,7 +5758,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="10">
         <v>2</v>
@@ -5624,7 +5769,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -5635,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="10">
         <v>2</v>
@@ -5646,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="10">
         <v>3</v>
@@ -5657,7 +5802,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="10">
         <v>3</v>
@@ -5668,7 +5813,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="10">
         <v>3</v>
@@ -5679,7 +5824,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="10">
         <v>3</v>
@@ -5690,7 +5835,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="10">
         <v>3</v>
@@ -5701,7 +5846,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="10">
         <v>3</v>
@@ -5712,7 +5857,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="10">
         <v>3</v>
@@ -5723,7 +5868,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
@@ -5734,7 +5879,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
@@ -5745,7 +5890,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="10">
         <v>3</v>
@@ -5756,7 +5901,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -5767,7 +5912,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="10">
         <v>4</v>
@@ -5778,7 +5923,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="10">
         <v>4</v>
@@ -5789,7 +5934,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="10">
         <v>4</v>
@@ -5800,7 +5945,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="10">
         <v>5</v>
@@ -5811,7 +5956,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" s="10">
         <v>6</v>
@@ -5822,7 +5967,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" s="10">
         <v>6</v>
@@ -5833,7 +5978,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D38" s="10">
         <v>6</v>
@@ -5844,7 +5989,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39" s="10">
         <v>7</v>
@@ -5855,7 +6000,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D40" s="10">
         <v>7</v>
@@ -5866,7 +6011,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="10">
         <v>7</v>
@@ -5877,7 +6022,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D42" s="10">
         <v>7</v>
@@ -5888,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
@@ -5899,7 +6044,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44" s="10">
         <v>4</v>
@@ -5910,7 +6055,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="10">
         <v>6</v>
@@ -6055,14 +6200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A39B5-39A1-4181-BE38-1143A1DF3952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -6078,28 +6223,28 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -6108,13 +6253,13 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="F5" s="10">
         <v>2</v>
@@ -6123,13 +6268,13 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="10">
         <v>3</v>
@@ -6138,13 +6283,13 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="F7" s="10">
         <v>4</v>
@@ -6153,13 +6298,13 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
@@ -6168,13 +6313,13 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="10">
         <v>6</v>
@@ -6183,13 +6328,13 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="10">
         <v>7</v>
@@ -6235,6 +6380,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010020D84139B7451C4783FCC5D6B27A1F13" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a887b147ce027501dc200393fe50591d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f866a35-6ea2-441d-a0ce-5fc6b8cabaa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6e98acf8a98608727a9d96e08f6896e" ns3:_="">
     <xsd:import namespace="5f866a35-6ea2-441d-a0ce-5fc6b8cabaa1"/>
@@ -6380,35 +6540,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FB4E34-D3A0-4BB2-82EB-9DE582777459}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACADBEC-107E-44D5-95DB-FDECB554EF7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5f866a35-6ea2-441d-a0ce-5fc6b8cabaa1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6430,9 +6565,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACADBEC-107E-44D5-95DB-FDECB554EF7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FB4E34-D3A0-4BB2-82EB-9DE582777459}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f866a35-6ea2-441d-a0ce-5fc6b8cabaa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>